--- a/documentacion desarrollado/tegnologias - herramientas.xlsx
+++ b/documentacion desarrollado/tegnologias - herramientas.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\adsi\proyecto\documentacion desarrollado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\adsi\proyecto\documentacion desarrollado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FD223C-624C-4CBD-BCF8-E35EB0B07D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA83F97-D953-4E1F-ABA0-CB2C62D8BC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{40ED8FE5-5804-451E-843C-F2190C53ACE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{40ED8FE5-5804-451E-843C-F2190C53ACE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="76">
   <si>
     <t>Python</t>
   </si>
@@ -161,13 +161,125 @@
   </si>
   <si>
     <t>Aplicativo web para administración de historias clínicas.</t>
+  </si>
+  <si>
+    <t>CSS «Hojas de estilo en cascada», es un lenguaje de diseño gráfico para definir y crear la presentación de un documento estructurado escrito en un lenguaje de marcado.</t>
+  </si>
+  <si>
+    <t>HTML 5</t>
+  </si>
+  <si>
+    <t>Python v.3.8.10</t>
+  </si>
+  <si>
+    <t>Flask v.2.1.2</t>
+  </si>
+  <si>
+    <t>Node JS v.16.0</t>
+  </si>
+  <si>
+    <t>Express v.4.17.1</t>
+  </si>
+  <si>
+    <t>Angular v.13.3.3</t>
+  </si>
+  <si>
+    <t>npm v.14.15.1</t>
+  </si>
+  <si>
+    <t>Mongo DB v.5.0.9</t>
+  </si>
+  <si>
+    <t>MySQL v.8.0</t>
+  </si>
+  <si>
+    <t>SQLalchemy v.1.4.37</t>
+  </si>
+  <si>
+    <t>Flask es un “micro” Framework escrito en Python y concebido para facilitar el desarrollo de Aplicaciones Web bajo el patrón MVC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Express es un framework web transigente, escrito en JavaScript y alojado dentro del entorno de ejecución NodeJS. </t>
+  </si>
+  <si>
+    <t>SQLAlchemy es un Object-Relational Mapper / Mapping-tool, o un ORM, es decir una librería que los desarrolladores utilizan para crear bases de datos.</t>
+  </si>
+  <si>
+    <r>
+      <t>Node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> Package Manager o manejador de paquetes de node.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.python.org/downloads/</t>
+  </si>
+  <si>
+    <t>pip install Flask</t>
+  </si>
+  <si>
+    <t>https://nodejs.org/es/</t>
+  </si>
+  <si>
+    <t>npm init  -y  =====&gt;  npm install express</t>
+  </si>
+  <si>
+    <t>npm install -g @angular/cli</t>
+  </si>
+  <si>
+    <t>npm install -D tailwindcss</t>
+  </si>
+  <si>
+    <t>URL instalación / Comando</t>
+  </si>
+  <si>
+    <t>no necesita ser instalado</t>
+  </si>
+  <si>
+    <t>puede activarse</t>
+  </si>
+  <si>
+    <t>Atlas</t>
+  </si>
+  <si>
+    <t>https://www.mongodb.com/cloud/atlas/lp/try2?utm_source=google&amp;utm_campaign=gs_americas_colombia_search_core_brand_atlas_desktop&amp;utm_term=atlas%20mongodb%20login&amp;utm_medium=cpc_paid_search&amp;utm_ad=e&amp;utm_ad_campaign_id=12212624317&amp;adgroup=115749712303&amp;gclid=EAIaIQobChMIwoDju5_G-AIV8h9lCh1g1wxKEAAYASAAEgLbG_D_BwE</t>
+  </si>
+  <si>
+    <t>https://www.mongodb.com/try/download/community</t>
+  </si>
+  <si>
+    <t>https://dev.mysql.com/downloads/mysql/</t>
+  </si>
+  <si>
+    <t>pip install -U Flask-SQLAlchemy</t>
+  </si>
+  <si>
+    <t>https://git-scm.com/downloads</t>
+  </si>
+  <si>
+    <t>https://github.com/login</t>
+  </si>
+  <si>
+    <t>https://login.docker.com/u/login/identifier?state=hKFo2SB4aU44Rkd6OTJGeU5sZVdORGRvalhocFdsY3poMmh4dKFur3VuaXZlcnNhbC1sb2dpbqN0aWTZIE00MDVqZUhla2c1NEY4YXRrS05BMUxKMk9kdnR3dlJJo2NpZNkgbHZlOUdHbDhKdFNVcm5lUTFFVnVDMGxiakhkaTluYjk</t>
+  </si>
+  <si>
+    <t>https://id.heroku.com/login</t>
+  </si>
+  <si>
+    <t>https://app.uizard.io/auth/login</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +295,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -192,7 +323,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -290,11 +421,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -318,8 +463,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1215,6 +1369,1710 @@
         <a:xfrm>
           <a:off x="367393" y="3854790"/>
           <a:ext cx="135039" cy="146292"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>483054</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>178254</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Imagen 41" descr="Icono&#10;&#10;Descripción generada automáticamente">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C723A65F-E676-4CF2-B2CF-4E037B0BDB41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="238125"/>
+          <a:ext cx="140154" cy="140154"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>149680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>675344</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Imagen 42" descr="Icono&#10;&#10;Descripción generada automáticamente">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D74E0BD-1ABD-4C65-BE1F-C16E9FFC5309}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="179294" y="541886"/>
+          <a:ext cx="496050" cy="278946"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>346983</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>20412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>517073</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Imagen 43" descr="Un dibujo de una señal de alto&#10;&#10;Descripción generada automáticamente con confianza baja">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FBF0DD7-184E-426B-B574-3069F3AF809F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="346983" y="601437"/>
+          <a:ext cx="170090" cy="170090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>346983</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>20412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>510268</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>183697</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Imagen 44" descr="Logotipo, Icono&#10;&#10;Descripción generada automáticamente">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C440734B-0265-4C8D-B5AC-ED1CF56EAB5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="346983" y="791937"/>
+          <a:ext cx="163285" cy="163285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>292555</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>585109</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>178076</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Imagen 45" descr="Logotipo, Icono&#10;&#10;Descripción generada automáticamente">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A2748DA-FD7A-45D8-B501-D181F25F29F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="292555" y="975633"/>
+          <a:ext cx="292554" cy="164468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>299358</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>557894</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>40823</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Imagen 46" descr="Logotipo, nombre de la empresa&#10;&#10;Descripción generada automáticamente">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7B962D7-B569-4F64-9541-F0E60893452B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="299358" y="1125312"/>
+          <a:ext cx="258536" cy="258536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>374196</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>496660</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>186339</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Imagen 47" descr="Icono&#10;&#10;Descripción generada automáticamente">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59E6AAD4-7782-4815-BE0C-487BC3C5D170}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="374196" y="1356632"/>
+          <a:ext cx="122464" cy="172732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>340178</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>530678</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Imagen 48" descr="Logotipo&#10;&#10;Descripción generada automáticamente">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9F7FF00-62EF-4007-945E-79EFBCB5EEA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="340178" y="1533525"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>278946</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>27216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>585107</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>186140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Imagen 49" descr="Logotipo&#10;&#10;Descripción generada automáticamente">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F1B89D-0E4D-4180-B084-A3D55BD6DC3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="278946" y="1751241"/>
+          <a:ext cx="306161" cy="158924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>387804</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>34019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>517072</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Imagen 51" descr="Icono&#10;&#10;Descripción generada automáticamente">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72BFEA76-FF44-43FD-A96D-AFA60DDEBCB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="387804" y="2139044"/>
+          <a:ext cx="129268" cy="129268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>387804</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Imagen 52" descr="Forma&#10;&#10;Descripción generada automáticamente con confianza baja">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D305DD29-78C5-42E2-9DF4-48E1CAE1073E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="387804" y="2322739"/>
+          <a:ext cx="136071" cy="136071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>27216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>509337</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>170090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Gráfico 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCDD9D76-72FB-48EB-AA74-9084991331CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381001" y="3465741"/>
+          <a:ext cx="128336" cy="142874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>367393</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>517072</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Imagen 58" descr="Icono&#10;&#10;Descripción generada automáticamente">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E5448C1-8409-4B61-A9A0-0B0A6194698B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="367393" y="3656239"/>
+          <a:ext cx="149679" cy="149679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>367393</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>31183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>502432</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Imagen 60" descr="Icono&#10;&#10;Descripción generada automáticamente">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C215EE34-FABB-48A7-903B-7B3F6CBA99C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="367393" y="3850708"/>
+          <a:ext cx="135039" cy="146292"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>633942</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Imagen 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D288DBC-A511-438D-AA2E-1D0311048D55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="2486025"/>
+          <a:ext cx="338667" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>207869</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>20731</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>684119</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>173466</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Imagen 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D6603FB-EAD2-4C9F-AF03-D8612E2F0625}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="207869" y="793937"/>
+          <a:ext cx="476250" cy="152735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>61632</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5603</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>23569</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Imagen 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF42C393-37F5-4B80-B5AF-27EAF950EC9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="61632" y="773206"/>
+          <a:ext cx="705971" cy="214069"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>229721</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>5603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>616324</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>8405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Imagen 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F04F7755-85C6-4340-9AE6-A77EE12D7B03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="229721" y="397809"/>
+          <a:ext cx="386603" cy="193302"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>72838</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>717176</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>169043</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Imagen 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE37320B-5E9D-4E6C-A6DB-B21C939D13B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="72838" y="2521324"/>
+          <a:ext cx="644338" cy="135425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="140154" cy="140154"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Imagen 73" descr="Icono&#10;&#10;Descripción generada automáticamente">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{788F668A-C83F-44BD-91E7-B0D41C06CF65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="239806"/>
+          <a:ext cx="140154" cy="140154"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>149680</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="496050" cy="278946"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Imagen 74" descr="Icono&#10;&#10;Descripción generada automáticamente">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B674209-6D13-4AC9-84E9-DF03EA5E86FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="179294" y="541886"/>
+          <a:ext cx="496050" cy="278946"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>346983</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>20412</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="170090" cy="170090"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Imagen 75" descr="Un dibujo de una señal de alto&#10;&#10;Descripción generada automáticamente con confianza baja">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEEFD61C-9A97-416C-9A42-418A77377AB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="346983" y="984118"/>
+          <a:ext cx="170090" cy="170090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>346983</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>20412</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="163285" cy="163285"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Imagen 76" descr="Logotipo, Icono&#10;&#10;Descripción generada automáticamente">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F500819-8C35-4553-AA12-025CD6041680}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="346983" y="1365118"/>
+          <a:ext cx="163285" cy="163285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>292555</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="292554" cy="164468"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Imagen 77" descr="Logotipo, Icono&#10;&#10;Descripción generada automáticamente">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8737A277-67FC-4E56-A95D-4D1572782DB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="292555" y="1548814"/>
+          <a:ext cx="292554" cy="164468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>299358</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="258536" cy="258536"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Imagen 78" descr="Logotipo, nombre de la empresa&#10;&#10;Descripción generada automáticamente">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C74B41FF-396C-404F-8137-CA3B1F724938}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="299358" y="1698493"/>
+          <a:ext cx="258536" cy="258536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>374196</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="122464" cy="172732"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Imagen 79" descr="Icono&#10;&#10;Descripción generada automáticamente">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45317746-EEF9-450F-AB78-3976793FAB74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="374196" y="1929813"/>
+          <a:ext cx="122464" cy="172732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>340178</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="190500" cy="190500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Imagen 80" descr="Logotipo&#10;&#10;Descripción generada automáticamente">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E61C73FF-BD35-46CE-868F-2E38D4541910}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="340178" y="2106706"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>278946</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>27216</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="306161" cy="158924"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Imagen 81" descr="Logotipo&#10;&#10;Descripción generada automáticamente">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{664D5393-723A-4B1C-A9AF-2C38CFFF9EE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="278946" y="2324422"/>
+          <a:ext cx="306161" cy="158924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>387804</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>34019</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="129268" cy="129268"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Imagen 82" descr="Icono&#10;&#10;Descripción generada automáticamente">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5927BFB-F9DB-4A3D-B2AB-C7D10F79B0F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="387804" y="2712225"/>
+          <a:ext cx="129268" cy="129268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>387804</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="136071" cy="136071"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Imagen 83" descr="Forma&#10;&#10;Descripción generada automáticamente con confianza baja">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A55FD79-760C-464B-A3F6-56E0D43AFD04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="387804" y="2895920"/>
+          <a:ext cx="136071" cy="136071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>27216</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="128336" cy="142874"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Gráfico 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58980D61-23B3-4F02-8583-433E99F701FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381001" y="3276922"/>
+          <a:ext cx="128336" cy="142874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>367393</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="149679" cy="149679"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Imagen 85" descr="Icono&#10;&#10;Descripción generada automáticamente">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1667ADC-58C1-4B1A-AB6E-C348BAB2160F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="367393" y="3467420"/>
+          <a:ext cx="149679" cy="149679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>367393</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>31183</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="135039" cy="146292"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Imagen 86" descr="Icono&#10;&#10;Descripción generada automáticamente">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{754B8956-AAEC-43B0-B5D4-D3661E0E38F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="367393" y="3661889"/>
+          <a:ext cx="135039" cy="146292"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="338667" cy="190500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Imagen 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90456F4A-345E-4024-84C4-DBEDC75DC251}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="3059206"/>
+          <a:ext cx="338667" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>207869</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>20731</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="476250" cy="152735"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="Imagen 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA006750-C6BB-4271-A408-F1A49F6B75D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="207869" y="1174937"/>
+          <a:ext cx="476250" cy="152735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>61632</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="705971" cy="214069"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Imagen 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA04E78F-1EA9-40E1-9163-9C9DB7BCC4CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="61632" y="773206"/>
+          <a:ext cx="705971" cy="214069"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>229721</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>5603</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="386603" cy="193302"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="Imagen 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA4F41E5-898F-4103-8126-0DD3E81CE88B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="229721" y="397809"/>
+          <a:ext cx="386603" cy="193302"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>72838</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="644338" cy="135425"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="Imagen 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF5530F6-BAED-460E-BF42-C5F487DABCCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="72838" y="2521324"/>
+          <a:ext cx="644338" cy="135425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>130612</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>119143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>712306</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>87159</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="Imagen 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BF4C430-2230-4E9C-8724-F08F66B90365}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="130612" y="6819773"/>
+          <a:ext cx="581694" cy="349016"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1525,7 +3383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9F2D1A-0E75-47BF-A43A-2AB384AF7862}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:C21"/>
     </sheetView>
   </sheetViews>
@@ -1732,4 +3590,410 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B299343B-35CC-42EB-874C-6AFFFC3D5802}">
+  <dimension ref="A1:C45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="149.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A25:B25"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C26" r:id="rId1" xr:uid="{B1742D45-DA3F-4564-9F0F-035942C488A4}"/>
+    <hyperlink ref="C28" r:id="rId2" xr:uid="{73AFBA35-5F11-464F-A0B7-FBC004F146B8}"/>
+    <hyperlink ref="C31" r:id="rId3" xr:uid="{1E0AF828-11F1-4255-B9E4-BE267ACA9441}"/>
+    <hyperlink ref="C37" r:id="rId4" display="https://www.mongodb.com/cloud/atlas/lp/try2?utm_source=google&amp;utm_campaign=gs_americas_colombia_search_core_brand_atlas_desktop&amp;utm_term=atlas%20mongodb%20login&amp;utm_medium=cpc_paid_search&amp;utm_ad=e&amp;utm_ad_campaign_id=12212624317&amp;adgroup=115749712303&amp;gclid=EAIaIQobChMIwoDju5_G-AIV8h9lCh1g1wxKEAAYASAAEgLbG_D_BwE" xr:uid="{A79C5CFC-8B82-4970-A0CA-A85AA2CDA064}"/>
+    <hyperlink ref="C36" r:id="rId5" xr:uid="{F4DCFB81-FB72-4C02-A542-C97659356043}"/>
+    <hyperlink ref="C38" r:id="rId6" xr:uid="{96A2AB07-E127-4765-BFA1-97F973C7F092}"/>
+    <hyperlink ref="C40" r:id="rId7" xr:uid="{8DC22899-5A9B-4855-9114-98E0E4EC44ED}"/>
+    <hyperlink ref="C41" r:id="rId8" xr:uid="{6DC05C6C-EF42-44ED-925B-A18F8826898C}"/>
+    <hyperlink ref="C42" r:id="rId9" xr:uid="{3C56BB59-2FD3-408A-AB7E-CFFFD36B3E47}"/>
+    <hyperlink ref="C43" r:id="rId10" xr:uid="{AF0E97DE-6545-4A35-8828-468AA14CB452}"/>
+    <hyperlink ref="C44" r:id="rId11" xr:uid="{7B7B2F0C-EEF2-4E73-B834-BB8EFDE29D89}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <drawing r:id="rId13"/>
+</worksheet>
 </file>